--- a/docs/StageProgressions.xlsx
+++ b/docs/StageProgressions.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nahamid/Documents/berry/25_spr/csc121-prep/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nahamid/Documents/berry/25_spr/csc121-prep/omg-project/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799D40A4-99B2-3948-9F4A-A9CB6AEFF0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CA34B8-C0F9-6A4D-8E06-EF1632905E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="760" windowWidth="28080" windowHeight="20360" xr2:uid="{30DF78BE-F12E-AF41-942D-682BAFF78B69}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20220" xr2:uid="{30DF78BE-F12E-AF41-942D-682BAFF78B69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="163">
   <si>
     <t>Class</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>StringHelpers</t>
-  </si>
-  <si>
-    <t>ListHelpers</t>
   </si>
   <si>
     <t>writtenBy(String)
@@ -310,14 +307,6 @@
 and Range() Range(int, int) constructors</t>
   </si>
   <si>
-    <t>Stage 6 - Abstraction, Class Hierarchies</t>
-  </si>
-  <si>
-    <t>yearRange()
-- change infoAsJSON() to findById()  ; produce an exception if not found
-- introduce containsId()  as guard</t>
-  </si>
-  <si>
     <t>main - year-range handler</t>
   </si>
   <si>
@@ -328,9 +317,6 @@
   </si>
   <si>
     <t>priceRangeAsJSON</t>
-  </si>
-  <si>
-    <t>starIcons() : JSONArray</t>
   </si>
   <si>
     <t>formatCount()
@@ -368,12 +354,6 @@
   </si>
   <si>
     <t>Make cart Ilo&lt;Integer&gt; - wrapper types</t>
-  </si>
-  <si>
-    <t>JSONArray tagTally(ILo&lt;String&gt; tags)</t>
-  </si>
-  <si>
-    <t>String tagCounts()</t>
   </si>
   <si>
     <t>append(ILo&lt;T&gt;)
@@ -609,6 +589,50 @@
   <si>
     <t>Mutable version
 void return - explain</t>
+  </si>
+  <si>
+    <t>Stage 1 Extension</t>
+  </si>
+  <si>
+    <t>modify to have an Author and Price</t>
+  </si>
+  <si>
+    <t>getDescription
+getShortDescription()</t>
+  </si>
+  <si>
+    <t>add params to constructor for rating, descrip</t>
+  </si>
+  <si>
+    <t>fetch description, rating  too</t>
+  </si>
+  <si>
+    <t>public static ILoS split(String text, char sep)</t>
+  </si>
+  <si>
+    <t>Stage 6 - Abstraction, Class Hierarchies [LONG]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yearRange()
+- change infoAsJSON() to findById()  ; produce an exception if not found
+</t>
+  </si>
+  <si>
+    <t>-starIcons() : JSONArray</t>
+  </si>
+  <si>
+    <t>String tagCounts()
+--JSONArray tagTally(ILo&lt;String&gt; tags)</t>
+  </si>
+  <si>
+    <t>implement RequestTagsWithFilterHandler, change items to List&lt;Imedia&gt;
+change data file</t>
+  </si>
+  <si>
+    <t>move quote into Store</t>
+  </si>
+  <si>
+    <t>OPTIONAL: overloaded constructors for media that take JSONObject</t>
   </si>
 </sst>
 </file>
@@ -685,7 +709,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -847,11 +871,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -919,59 +958,68 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1307,13 +1355,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D7B804-2E1A-DD46-A257-9DE765DDF19B}">
-  <dimension ref="A3:CO37"/>
+  <dimension ref="A3:CS36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="CE26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="BP5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CJ27" sqref="CJ27"/>
+      <selection pane="bottomRight" activeCell="BY6" sqref="BT6:BY6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.2"/>
@@ -1365,127 +1413,134 @@
     <col min="87" max="89" width="24" style="1" customWidth="1"/>
     <col min="90" max="90" width="10.83203125" style="1"/>
     <col min="91" max="93" width="24" style="1" customWidth="1"/>
-    <col min="94" max="16384" width="10.83203125" style="1"/>
+    <col min="94" max="94" width="10.83203125" style="1"/>
+    <col min="95" max="97" width="24" style="1" customWidth="1"/>
+    <col min="98" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:93" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="23" t="s">
+    <row r="3" spans="1:97" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="G3" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="K3" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="G3" s="23" t="s">
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="O3" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="S3" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="K3" s="23" t="s">
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="W3" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="O3" s="23" t="s">
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="AA3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="S3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="W3" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="AA3" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AE3" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AI3" s="23" t="s">
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AE3" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AI3" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="23"/>
-      <c r="AM3" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AQ3" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR3" s="23"/>
-      <c r="AS3" s="23"/>
-      <c r="AU3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV3" s="23"/>
-      <c r="AW3" s="23"/>
-      <c r="AY3" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ3" s="23"/>
-      <c r="BA3" s="23"/>
-      <c r="BC3" s="23" t="s">
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AM3" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AQ3" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AU3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AY3" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BC3" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43"/>
+      <c r="BG3" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="BH3" s="43"/>
+      <c r="BI3" s="43"/>
+      <c r="BK3" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BO3" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43"/>
+      <c r="BS3" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="BD3" s="23"/>
-      <c r="BE3" s="23"/>
-      <c r="BG3" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="BH3" s="23"/>
-      <c r="BI3" s="23"/>
-      <c r="BK3" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="BL3" s="23"/>
-      <c r="BM3" s="23"/>
-      <c r="BO3" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="BP3" s="23"/>
-      <c r="BQ3" s="23"/>
-      <c r="BS3" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="BT3" s="23"/>
-      <c r="BU3" s="23"/>
-      <c r="BW3" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="BX3" s="23"/>
-      <c r="BY3" s="23"/>
-      <c r="CA3" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="CB3" s="23"/>
-      <c r="CC3" s="23"/>
-      <c r="CE3" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="CF3" s="23"/>
-      <c r="CG3" s="23"/>
-      <c r="CI3" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="CJ3" s="23"/>
-      <c r="CK3" s="23"/>
-      <c r="CM3" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="CN3" s="23"/>
-      <c r="CO3" s="23"/>
+      <c r="BT3" s="43"/>
+      <c r="BU3" s="43"/>
+      <c r="BW3" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX3" s="43"/>
+      <c r="BY3" s="43"/>
+      <c r="CA3" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="CB3" s="43"/>
+      <c r="CC3" s="43"/>
+      <c r="CE3" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="CF3" s="43"/>
+      <c r="CG3" s="43"/>
+      <c r="CI3" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="CJ3" s="43"/>
+      <c r="CK3" s="43"/>
+      <c r="CM3" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="CN3" s="43"/>
+      <c r="CO3" s="43"/>
+      <c r="CQ3" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="CR3" s="43"/>
+      <c r="CS3" s="43"/>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1696,8 +1751,17 @@
       <c r="CO4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="CQ4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CS4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:93" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:97" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1706,125 +1770,132 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="38" t="s">
+        <v>154</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y6" s="9"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
       <c r="AA6" s="10"/>
       <c r="AB6" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="AC6" s="9"/>
       <c r="AE6" s="10"/>
       <c r="AF6" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AG6" s="9"/>
       <c r="AI6" s="10"/>
       <c r="AJ6" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AK6" s="9"/>
       <c r="AM6" s="10"/>
       <c r="AN6" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AO6" s="9"/>
       <c r="AQ6" s="10"/>
       <c r="AR6" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AS6" s="9"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW6" s="9"/>
       <c r="AY6" s="3"/>
       <c r="AZ6" s="3"/>
       <c r="BA6" s="3"/>
-      <c r="BC6" s="10"/>
-      <c r="BD6" s="7" t="s">
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BG6" s="10"/>
+      <c r="BH6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK6" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="BE6" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="BG6" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="BH6" s="7"/>
-      <c r="BI6" s="9"/>
-      <c r="BO6" s="10"/>
-      <c r="BP6" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="BQ6" s="9"/>
+      <c r="BL6" s="7"/>
+      <c r="BM6" s="9"/>
+      <c r="BO6" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="BP6" s="41"/>
+      <c r="BQ6" s="42"/>
       <c r="BS6" s="10"/>
-      <c r="BT6" s="7" t="s">
-        <v>142</v>
+      <c r="BT6" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="BU6" s="9"/>
-      <c r="BW6" s="3"/>
-      <c r="BX6" s="3"/>
-      <c r="BY6" s="3"/>
-      <c r="CA6" s="10"/>
-      <c r="CB6" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="CC6" s="9"/>
-      <c r="CE6" s="3"/>
-      <c r="CF6" s="3"/>
-      <c r="CG6" s="3"/>
+      <c r="BW6" s="10"/>
+      <c r="BX6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BY6" s="9"/>
+      <c r="CA6" s="3"/>
+      <c r="CB6" s="3"/>
+      <c r="CC6" s="3"/>
+      <c r="CE6" s="10"/>
+      <c r="CF6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="CG6" s="9"/>
       <c r="CI6" s="3"/>
       <c r="CJ6" s="3"/>
       <c r="CK6" s="3"/>
-      <c r="CN6" s="27" t="s">
-        <v>152</v>
+      <c r="CM6" s="3"/>
+      <c r="CN6" s="3"/>
+      <c r="CO6" s="3"/>
+      <c r="CR6" s="24" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:93" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:97" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S8" s="10"/>
+      <c r="S8" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="T8" s="7"/>
       <c r="U8" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="AA8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="14"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="W8" s="10"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AE8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="14"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
@@ -1834,37 +1905,37 @@
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW8" s="9"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BC8" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="BD8" s="7"/>
-      <c r="BE8" s="9"/>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="3"/>
-      <c r="BK8" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="BL8" s="7" t="s">
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AY8" s="10"/>
+      <c r="AZ8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA8" s="9"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BG8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BH8" s="7"/>
+      <c r="BI8" s="9"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BO8" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ8" s="9"/>
+      <c r="BS8" s="12"/>
+      <c r="BT8" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="BM8" s="9"/>
-      <c r="BO8" s="12"/>
-      <c r="BP8" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="BQ8" s="14"/>
-      <c r="BS8" s="3"/>
-      <c r="BT8" s="3"/>
-      <c r="BU8" s="3"/>
+      <c r="BU8" s="14"/>
       <c r="BW8" s="3"/>
       <c r="BX8" s="3"/>
       <c r="BY8" s="3"/>
@@ -1877,59 +1948,61 @@
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
       <c r="CK8" s="3"/>
+      <c r="CM8" s="3"/>
+      <c r="CN8" s="3"/>
+      <c r="CO8" s="3"/>
     </row>
-    <row r="9" spans="1:93" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:97" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
+        <v>64</v>
+      </c>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
-      <c r="AM9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AU9" s="10"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AY9" s="3"/>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="3"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AQ9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
       <c r="BE9" s="3"/>
       <c r="BG9" s="3"/>
       <c r="BH9" s="3"/>
       <c r="BI9" s="3"/>
-      <c r="BK9" s="3"/>
-      <c r="BL9" s="7" t="s">
+      <c r="BK9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="BL9" s="3"/>
+      <c r="BM9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BS9" s="15"/>
+      <c r="BT9" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="BM9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BO9" s="15"/>
-      <c r="BP9" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="BQ9" s="16"/>
-      <c r="BS9" s="3"/>
-      <c r="BT9" s="3"/>
-      <c r="BU9" s="3"/>
+      <c r="BU9" s="16"/>
       <c r="BW9" s="3"/>
       <c r="BX9" s="3"/>
       <c r="BY9" s="3"/>
@@ -1942,70 +2015,70 @@
       <c r="CI9" s="3"/>
       <c r="CJ9" s="3"/>
       <c r="CK9" s="3"/>
+      <c r="CM9" s="3"/>
+      <c r="CN9" s="3"/>
+      <c r="CO9" s="3"/>
     </row>
-    <row r="10" spans="1:93" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:97" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="9"/>
-      <c r="S10" s="10"/>
+      <c r="S10" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="T10" s="7"/>
-      <c r="U10" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="AA10" s="15"/>
+      <c r="U10" s="9"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
-      <c r="AC10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AE10" s="15"/>
       <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
+      <c r="AG10" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
-      <c r="AM10" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AQ10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="AU10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="3"/>
       <c r="AY10" s="3"/>
       <c r="AZ10" s="3"/>
       <c r="BA10" s="3"/>
-      <c r="BC10" s="10" t="s">
-        <v>118</v>
-      </c>
+      <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
       <c r="BE10" s="3"/>
-      <c r="BG10" s="3"/>
+      <c r="BG10" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="BH10" s="3"/>
       <c r="BI10" s="3"/>
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
-      <c r="BM10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BO10" s="15"/>
-      <c r="BP10" s="26"/>
-      <c r="BQ10" s="16"/>
-      <c r="BS10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BO10" s="3"/>
+      <c r="BP10" s="3"/>
+      <c r="BQ10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BS10" s="15"/>
       <c r="BT10" s="3"/>
-      <c r="BU10" s="3"/>
+      <c r="BU10" s="16"/>
       <c r="BW10" s="3"/>
       <c r="BX10" s="3"/>
       <c r="BY10" s="3"/>
@@ -2018,85 +2091,94 @@
       <c r="CI10" s="3"/>
       <c r="CJ10" s="3"/>
       <c r="CK10" s="3"/>
+      <c r="CM10" s="3"/>
+      <c r="CN10" s="3"/>
+      <c r="CO10" s="3"/>
     </row>
-    <row r="11" spans="1:93" ht="85" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:97" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="O11" s="10" t="s">
-        <v>32</v>
+      <c r="K11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="P11" s="7"/>
-      <c r="Q11" s="9"/>
-      <c r="S11" s="10"/>
+      <c r="Q11" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="T11" s="7"/>
-      <c r="U11" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="AA11" s="15"/>
+      <c r="U11" s="9"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-      <c r="AC11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AE11" s="15"/>
       <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
+      <c r="AG11" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
-      <c r="AM11" s="15" t="s">
-        <v>67</v>
-      </c>
+      <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AQ11" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
+      <c r="AS11" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="AU11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="3"/>
       <c r="AY11" s="3"/>
       <c r="AZ11" s="3"/>
       <c r="BA11" s="3"/>
-      <c r="BC11" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="BD11" s="30"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
       <c r="BE11" s="3"/>
-      <c r="BG11" s="3"/>
-      <c r="BH11" s="3"/>
+      <c r="BG11" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BH11" s="27"/>
       <c r="BI11" s="3"/>
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
-      <c r="BM11" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BO11" s="15"/>
-      <c r="BP11" s="26"/>
-      <c r="BQ11" s="16"/>
-      <c r="BS11" s="3"/>
+      <c r="BM11" s="3"/>
+      <c r="BO11" s="3"/>
+      <c r="BP11" s="3"/>
+      <c r="BQ11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BS11" s="15"/>
       <c r="BT11" s="3"/>
-      <c r="BU11" s="3"/>
+      <c r="BU11" s="16"/>
       <c r="BW11" s="3"/>
       <c r="BX11" s="3"/>
       <c r="BY11" s="3"/>
@@ -2109,70 +2191,70 @@
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
+      <c r="CM11" s="3"/>
+      <c r="CN11" s="3"/>
+      <c r="CO11" s="3"/>
     </row>
-    <row r="12" spans="1:93" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:97" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="9"/>
-      <c r="S12" s="10"/>
+      <c r="S12" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="T12" s="7"/>
-      <c r="U12" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
+      <c r="U12" s="9"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AQ12" s="17"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="22" t="s">
+        <v>68</v>
+      </c>
       <c r="AU12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="3"/>
       <c r="AY12" s="3"/>
       <c r="AZ12" s="3"/>
       <c r="BA12" s="3"/>
-      <c r="BC12" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="BD12" s="31" t="s">
-        <v>119</v>
-      </c>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
       <c r="BE12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
+      <c r="BG12" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BH12" s="28" t="s">
+        <v>113</v>
+      </c>
       <c r="BI12" s="3"/>
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
-      <c r="BM12" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BO12" s="17"/>
-      <c r="BP12" s="6"/>
-      <c r="BQ12" s="18"/>
-      <c r="BS12" s="3"/>
-      <c r="BT12" s="3"/>
-      <c r="BU12" s="3"/>
+      <c r="BM12" s="3"/>
+      <c r="BO12" s="3"/>
+      <c r="BP12" s="3"/>
+      <c r="BQ12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BS12" s="17"/>
+      <c r="BT12" s="6"/>
+      <c r="BU12" s="18"/>
       <c r="BW12" s="3"/>
       <c r="BX12" s="3"/>
       <c r="BY12" s="3"/>
@@ -2185,61 +2267,119 @@
       <c r="CI12" s="3"/>
       <c r="CJ12" s="3"/>
       <c r="CK12" s="3"/>
+      <c r="CM12" s="3"/>
+      <c r="CN12" s="3"/>
+      <c r="CO12" s="3"/>
     </row>
-    <row r="13" spans="1:93" ht="68" x14ac:dyDescent="0.2">
-      <c r="BD13" s="38" t="s">
-        <v>153</v>
+    <row r="13" spans="1:97" ht="68" x14ac:dyDescent="0.2">
+      <c r="BH13" s="35" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:93" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:97" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="9"/>
-      <c r="O14" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="S14" s="24"/>
-      <c r="BD14" s="32"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="29"/>
+      <c r="BI14" s="3"/>
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="3"/>
+      <c r="BM14" s="3"/>
+      <c r="BO14" s="3"/>
+      <c r="BP14" s="3"/>
+      <c r="BQ14" s="3"/>
+      <c r="BS14" s="3"/>
+      <c r="BT14" s="3"/>
+      <c r="BU14" s="3"/>
+      <c r="BW14" s="3"/>
+      <c r="BX14" s="3"/>
+      <c r="BY14" s="3"/>
+      <c r="CA14" s="3"/>
+      <c r="CB14" s="3"/>
+      <c r="CC14" s="3"/>
+      <c r="CE14" s="3"/>
+      <c r="CF14" s="3"/>
+      <c r="CG14" s="3"/>
+      <c r="CI14" s="3"/>
+      <c r="CJ14" s="3"/>
+      <c r="CK14" s="3"/>
+      <c r="CM14" s="3"/>
+      <c r="CN14" s="3"/>
+      <c r="CO14" s="3"/>
     </row>
-    <row r="15" spans="1:93" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:97" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="9"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="9"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="S15" s="29" t="s">
-        <v>89</v>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="W15" s="26" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:93" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:97" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="9"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="O16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="9"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -2255,19 +2395,19 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
-      <c r="AM16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN16" s="7"/>
-      <c r="AO16" s="9"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
       <c r="AQ16" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AR16" s="7"/>
       <c r="AS16" s="9"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
-      <c r="AW16" s="3"/>
+      <c r="AU16" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV16" s="7"/>
+      <c r="AW16" s="9"/>
       <c r="AY16" s="3"/>
       <c r="AZ16" s="3"/>
       <c r="BA16" s="3"/>
@@ -2280,14 +2420,14 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
       <c r="BM16" s="3"/>
-      <c r="BO16" s="10"/>
-      <c r="BP16" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="BQ16" s="9"/>
-      <c r="BS16" s="3"/>
-      <c r="BT16" s="3"/>
-      <c r="BU16" s="3"/>
+      <c r="BO16" s="3"/>
+      <c r="BP16" s="3"/>
+      <c r="BQ16" s="3"/>
+      <c r="BS16" s="10"/>
+      <c r="BT16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU16" s="9"/>
       <c r="BW16" s="3"/>
       <c r="BX16" s="3"/>
       <c r="BY16" s="3"/>
@@ -2300,19 +2440,19 @@
       <c r="CI16" s="3"/>
       <c r="CJ16" s="3"/>
       <c r="CK16" s="3"/>
+      <c r="CM16" s="3"/>
+      <c r="CN16" s="3"/>
+      <c r="CO16" s="3"/>
     </row>
-    <row r="18" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="T18" s="13"/>
-      <c r="U18" s="14"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
+      <c r="W18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="14"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
@@ -2322,16 +2462,16 @@
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
-      <c r="AM18" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AQ18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="AU18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="AW18" s="3"/>
@@ -2365,19 +2505,19 @@
       <c r="CI18" s="3"/>
       <c r="CJ18" s="3"/>
       <c r="CK18" s="3"/>
+      <c r="CM18" s="3"/>
+      <c r="CN18" s="3"/>
+      <c r="CO18" s="3"/>
     </row>
-    <row r="19" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="T19" s="3"/>
-      <c r="U19" s="16"/>
-      <c r="W19" s="3"/>
+      <c r="W19" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
+      <c r="Y19" s="16"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
@@ -2387,12 +2527,12 @@
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
-      <c r="AM19" s="15"/>
+      <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="16"/>
-      <c r="AQ19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AQ19" s="15"/>
       <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
+      <c r="AS19" s="16"/>
       <c r="AU19" s="3"/>
       <c r="AV19" s="3"/>
       <c r="AW19" s="3"/>
@@ -2426,19 +2566,19 @@
       <c r="CI19" s="3"/>
       <c r="CJ19" s="3"/>
       <c r="CK19" s="3"/>
+      <c r="CM19" s="3"/>
+      <c r="CN19" s="3"/>
+      <c r="CO19" s="3"/>
     </row>
-    <row r="20" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S20" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="T20" s="6"/>
-      <c r="U20" s="18"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
+      <c r="W20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="18"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
@@ -2448,12 +2588,12 @@
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="18"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AQ20" s="17"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="18"/>
       <c r="AU20" s="3"/>
       <c r="AV20" s="3"/>
       <c r="AW20" s="3"/>
@@ -2487,23 +2627,23 @@
       <c r="CI20" s="3"/>
       <c r="CJ20" s="3"/>
       <c r="CK20" s="3"/>
+      <c r="CM20" s="3"/>
+      <c r="CN20" s="3"/>
+      <c r="CO20" s="3"/>
     </row>
-    <row r="22" spans="1:89" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:93" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN22" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO22" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AJ22" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK22" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
       <c r="AS22" s="3"/>
@@ -2540,268 +2680,271 @@
       <c r="CI22" s="3"/>
       <c r="CJ22" s="3"/>
       <c r="CK22" s="3"/>
+      <c r="CM22" s="3"/>
+      <c r="CN22" s="3"/>
+      <c r="CO22" s="3"/>
     </row>
-    <row r="24" spans="1:89" ht="85" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:93" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU24" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV24" s="7"/>
-      <c r="AW24" s="9"/>
+        <v>83</v>
+      </c>
       <c r="AY24" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AZ24" s="7"/>
       <c r="BA24" s="9"/>
       <c r="BC24" s="8" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="BD24" s="7"/>
       <c r="BE24" s="9"/>
-      <c r="BG24" s="3"/>
+      <c r="BG24" s="4"/>
       <c r="BH24" s="3"/>
       <c r="BI24" s="3"/>
-      <c r="BK24" s="29" t="s">
-        <v>89</v>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BO24" s="26" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:89" ht="119" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:93" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA25" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="W25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="9"/>
-      <c r="AA25" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="AB25" s="7"/>
       <c r="AC25" s="9"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="AE25" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF25" s="7"/>
       <c r="AG25" s="9"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AM25" s="8" t="s">
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK25" s="9"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AQ25" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR25" s="7"/>
+      <c r="AS25" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU25" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AN25" s="7"/>
-      <c r="AO25" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ25" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR25" s="7"/>
-      <c r="AS25" s="9"/>
-      <c r="AU25" s="3"/>
-      <c r="AV25" s="3"/>
-      <c r="AW25" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="AV25" s="7"/>
+      <c r="AW25" s="9"/>
       <c r="AY25" s="3"/>
       <c r="AZ25" s="3"/>
-      <c r="BA25" s="3"/>
+      <c r="BA25" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
       <c r="BE25" s="3"/>
-      <c r="BG25" s="3"/>
-      <c r="BH25" s="3"/>
-      <c r="BI25" s="3"/>
-      <c r="BK25" s="29" t="s">
-        <v>89</v>
+      <c r="BG25" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH25" s="7"/>
+      <c r="BI25" s="9"/>
+      <c r="BK25" s="3"/>
+      <c r="BL25" s="3"/>
+      <c r="BM25" s="3"/>
+      <c r="BO25" s="26" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:89" ht="85" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:93" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE26" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="14"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AY26" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:93" ht="85" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AA26" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="14"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
-      <c r="AS26" s="3"/>
-      <c r="AU26" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:89" ht="85" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="9"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
+      <c r="AI27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="9"/>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
       <c r="AS27" s="3"/>
-      <c r="AU27" s="29" t="s">
-        <v>89</v>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AY27" s="26" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:89" ht="119" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:93" ht="119" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA29" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="I29" s="3"/>
+      <c r="K29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="AA29" s="10"/>
       <c r="AB29" s="7"/>
-      <c r="AC29" s="9"/>
-      <c r="AE29" s="8" t="s">
-        <v>57</v>
+      <c r="AC29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE29" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="AF29" s="7"/>
-      <c r="AG29" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="AG29" s="9"/>
       <c r="AI29" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AJ29" s="7"/>
       <c r="AK29" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM29" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
+      </c>
+      <c r="AM29" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="AN29" s="7"/>
-      <c r="AO29" s="9"/>
+      <c r="AO29" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ29" s="10" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="AR29" s="7"/>
       <c r="AS29" s="9"/>
-      <c r="AU29" s="10"/>
-      <c r="AV29" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW29" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY29" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ29" s="7"/>
-      <c r="BA29" s="9"/>
+      <c r="AU29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV29" s="7"/>
+      <c r="AW29" s="9"/>
+      <c r="AY29" s="10"/>
+      <c r="AZ29" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA29" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="BC29" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BD29" s="25" t="s">
-        <v>102</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="BD29" s="7"/>
       <c r="BE29" s="9"/>
       <c r="BG29" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="BH29" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="BH29" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="BI29" s="9"/>
       <c r="BK29" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL29" s="7"/>
+      <c r="BM29" s="9"/>
+      <c r="BO29" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="BP29" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="BQ29" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="BS29" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="BL29" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM29" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="BO29" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="BP29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="BQ29" s="9"/>
-      <c r="BS29" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="BT29" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="BU29" s="9" t="s">
+      <c r="BU29" s="9"/>
+      <c r="BW29" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX29" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="BY29" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="CA29" s="3"/>
+      <c r="CB29" s="3"/>
+      <c r="CC29" s="3"/>
+      <c r="CE29" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="BW29" s="3"/>
-      <c r="BX29" s="3"/>
-      <c r="BY29" s="3"/>
-      <c r="CA29" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="CB29" s="7"/>
-      <c r="CC29" s="11" t="s">
+      <c r="CF29" s="7"/>
+      <c r="CG29" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="CI29" s="3"/>
+      <c r="CJ29" s="3"/>
+      <c r="CK29" s="3"/>
+      <c r="CM29" s="10"/>
+      <c r="CN29" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="CE29" s="3"/>
-      <c r="CF29" s="3"/>
-      <c r="CG29" s="3"/>
-      <c r="CI29" s="10"/>
-      <c r="CJ29" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="CK29" s="9"/>
+      <c r="CO29" s="9"/>
     </row>
-    <row r="31" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC31" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="BD31" s="7"/>
-      <c r="BE31" s="9"/>
-      <c r="BK31" s="3"/>
-      <c r="BL31" s="3"/>
-      <c r="BM31" s="3"/>
-      <c r="BO31" s="33"/>
-      <c r="BP31" s="33"/>
-      <c r="BQ31" s="33"/>
-      <c r="BS31" s="3"/>
-      <c r="BT31" s="3"/>
-      <c r="BU31" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="BG31" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH31" s="7"/>
+      <c r="BI31" s="9"/>
+      <c r="BO31" s="3"/>
+      <c r="BP31" s="3"/>
+      <c r="BQ31" s="3"/>
+      <c r="BS31" s="30"/>
+      <c r="BT31" s="30"/>
+      <c r="BU31" s="30"/>
       <c r="BW31" s="3"/>
       <c r="BX31" s="3"/>
       <c r="BY31" s="3"/>
@@ -2814,32 +2957,32 @@
       <c r="CI31" s="3"/>
       <c r="CJ31" s="3"/>
       <c r="CK31" s="3"/>
+      <c r="CM31" s="3"/>
+      <c r="CN31" s="3"/>
+      <c r="CO31" s="3"/>
     </row>
-    <row r="32" spans="1:89" ht="68" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:93" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="BC32" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD32" s="7"/>
-      <c r="BE32" s="9"/>
-      <c r="BG32" s="37" t="s">
-        <v>110</v>
+        <v>102</v>
+      </c>
+      <c r="BG32" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="BH32" s="7"/>
       <c r="BI32" s="9"/>
-      <c r="BK32" s="3"/>
-      <c r="BL32" s="3"/>
-      <c r="BM32" s="3"/>
-      <c r="BO32" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="BP32" s="35"/>
-      <c r="BQ32" s="36"/>
-      <c r="BS32" s="3"/>
-      <c r="BT32" s="3"/>
-      <c r="BU32" s="3"/>
+      <c r="BK32" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL32" s="7"/>
+      <c r="BM32" s="9"/>
+      <c r="BO32" s="3"/>
+      <c r="BP32" s="3"/>
+      <c r="BQ32" s="3"/>
+      <c r="BS32" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="BT32" s="32"/>
+      <c r="BU32" s="33"/>
       <c r="BW32" s="3"/>
       <c r="BX32" s="3"/>
       <c r="BY32" s="3"/>
@@ -2852,72 +2995,74 @@
       <c r="CI32" s="3"/>
       <c r="CJ32" s="3"/>
       <c r="CK32" s="3"/>
+      <c r="CM32" s="3"/>
+      <c r="CN32" s="3"/>
+      <c r="CO32" s="3"/>
     </row>
-    <row r="33" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="BS33" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="BT33" s="7"/>
-      <c r="BU33" s="9"/>
+        <v>131</v>
+      </c>
       <c r="BW33" s="10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="BX33" s="7"/>
       <c r="BY33" s="9"/>
-      <c r="CA33" s="3"/>
-      <c r="CB33" s="3"/>
-      <c r="CC33" s="3"/>
+      <c r="CA33" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB33" s="7"/>
+      <c r="CC33" s="9"/>
       <c r="CE33" s="3"/>
       <c r="CF33" s="3"/>
       <c r="CG33" s="3"/>
       <c r="CI33" s="3"/>
       <c r="CJ33" s="3"/>
       <c r="CK33" s="3"/>
+      <c r="CM33" s="3"/>
+      <c r="CN33" s="3"/>
+      <c r="CO33" s="3"/>
     </row>
-    <row r="34" spans="1:89" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:93" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="CA34" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="CB34" s="7"/>
-      <c r="CC34" s="9"/>
-      <c r="CE34" s="37" t="s">
-        <v>147</v>
+        <v>139</v>
+      </c>
+      <c r="CE34" s="34" t="s">
+        <v>140</v>
       </c>
       <c r="CF34" s="7"/>
       <c r="CG34" s="9"/>
-      <c r="CI34" s="3"/>
-      <c r="CJ34" s="3"/>
-      <c r="CK34" s="3"/>
+      <c r="CI34" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="CJ34" s="7"/>
+      <c r="CK34" s="9"/>
+      <c r="CM34" s="3"/>
+      <c r="CN34" s="3"/>
+      <c r="CO34" s="3"/>
     </row>
-    <row r="36" spans="1:89" ht="136" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:93" ht="136" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O36" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
+      <c r="S36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T36" s="7"/>
+      <c r="U36" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
+      <c r="AE36" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="9"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
@@ -2927,68 +3072,57 @@
       <c r="AQ36" s="3"/>
       <c r="AR36" s="3"/>
       <c r="AS36" s="3"/>
-      <c r="AU36" s="10"/>
-      <c r="AV36" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW36" s="11"/>
-      <c r="AY36" s="3"/>
-      <c r="AZ36" s="3"/>
-      <c r="BA36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AY36" s="10"/>
+      <c r="AZ36" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA36" s="11"/>
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
       <c r="BE36" s="3"/>
       <c r="BG36" s="3"/>
       <c r="BH36" s="3"/>
       <c r="BI36" s="3"/>
-      <c r="BK36" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY37" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ37" s="7"/>
-      <c r="BA37" s="9"/>
-      <c r="BC37" s="3"/>
-      <c r="BD37" s="3"/>
-      <c r="BE37" s="3"/>
-      <c r="BG37" s="3"/>
-      <c r="BH37" s="3"/>
-      <c r="BI37" s="3"/>
-      <c r="BK37" s="29" t="s">
-        <v>89</v>
+      <c r="BK36" s="3"/>
+      <c r="BL36" s="3"/>
+      <c r="BM36" s="3"/>
+      <c r="BO36" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP36" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="BW3:BY3"/>
+  <mergeCells count="25">
     <mergeCell ref="CA3:CC3"/>
     <mergeCell ref="CE3:CG3"/>
     <mergeCell ref="CI3:CK3"/>
     <mergeCell ref="CM3:CO3"/>
-    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="CQ3:CS3"/>
+    <mergeCell ref="BS3:BU3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BC3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BS3:BU3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="AM3:AO3"/>
     <mergeCell ref="AQ3:AS3"/>
     <mergeCell ref="AU3:AW3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BO6:BQ6"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BO3:BQ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
